--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/101.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/101.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07563972471490406</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.590807581898285</v>
+        <v>-1.5701362210272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04468280771018469</v>
+        <v>0.05965706093054431</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1039135867420481</v>
+        <v>-0.1223145728317705</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07789665802759689</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.699557803901529</v>
+        <v>-1.667493687777083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01601476344519239</v>
+        <v>0.03190738691473358</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08755958807577981</v>
+        <v>-0.1002138248796855</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1007863406148806</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.803951972425546</v>
+        <v>-1.789539107696141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03489610535682368</v>
+        <v>0.06875608063308732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1412032149838563</v>
+        <v>-0.1666679137373949</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1410743919449668</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.993393942244995</v>
+        <v>-1.990763665609223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0820308378756292</v>
+        <v>0.1048455493441685</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1585602666885789</v>
+        <v>-0.1678958141818492</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1816703192880058</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.091506253857878</v>
+        <v>-2.13350088707264</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141859228496795</v>
+        <v>0.151261938202247</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1633156433206686</v>
+        <v>-0.1774562090811193</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1975355185069326</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.989780323219996</v>
+        <v>-1.999717410526721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2523308471992198</v>
+        <v>0.2786452939416673</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1848279918921173</v>
+        <v>-0.1944789097730238</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1687947620993683</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.753335755233969</v>
+        <v>-1.751310668531878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3373450673885606</v>
+        <v>0.3500358053947391</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1766663230639377</v>
+        <v>-0.1974939090807503</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08350576939619568</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.335280185364081</v>
+        <v>-1.319437203529631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3851120007307297</v>
+        <v>0.4058987054009968</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1641551709729411</v>
+        <v>-0.1720365105676662</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.06734487692018919</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8400406332163959</v>
+        <v>-0.8049118761491326</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3820400595474577</v>
+        <v>0.4024237909446341</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.115030392906227</v>
+        <v>-0.1343599695817672</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2834877386221387</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2370363915268306</v>
+        <v>-0.1996518601591133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2978011248943894</v>
+        <v>0.3215371267082922</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08332252851596275</v>
+        <v>-0.1106619290182281</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5516999591045391</v>
       </c>
       <c r="E12" t="n">
-        <v>0.473859563888524</v>
+        <v>0.5302802022655089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09176789859389932</v>
+        <v>0.09952367405280632</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01818585495637362</v>
+        <v>0.001602628739832621</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.8570158035491044</v>
       </c>
       <c r="E13" t="n">
-        <v>1.16089687345034</v>
+        <v>1.197139647210966</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2079230325941111</v>
+        <v>-0.2144786485222912</v>
       </c>
       <c r="G13" t="n">
-        <v>0.132919354036161</v>
+        <v>0.1490835464506112</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.182523926420474</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92667311650677</v>
+        <v>1.971096539720758</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6231665498409087</v>
+        <v>-0.7001753263477971</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2493961505364934</v>
+        <v>0.2378676108106783</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.509479164688373</v>
       </c>
       <c r="E15" t="n">
-        <v>2.70748639485147</v>
+        <v>2.796588749695355</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.020920151006711</v>
+        <v>-1.119742045991775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4032837592701793</v>
+        <v>0.4265759064644458</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.825373629025499</v>
       </c>
       <c r="E16" t="n">
-        <v>3.351065372987388</v>
+        <v>3.477763966172172</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.449956742568323</v>
+        <v>-1.603200470093918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5485483239789585</v>
+        <v>0.5848509597113124</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.122746587739945</v>
       </c>
       <c r="E17" t="n">
-        <v>3.981920032011037</v>
+        <v>4.125847192668544</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.820889260304132</v>
+        <v>-1.967594162454593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6858205854381034</v>
+        <v>0.7217114876088211</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.396278494232158</v>
       </c>
       <c r="E18" t="n">
-        <v>4.53438908917807</v>
+        <v>4.705319839276934</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.168700456472312</v>
+        <v>-2.380046797775619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8916348045249572</v>
+        <v>0.9327424585244917</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.642851878873092</v>
       </c>
       <c r="E19" t="n">
-        <v>4.974314719401679</v>
+        <v>5.15539718387663</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.549064154851346</v>
+        <v>-2.757647355142608</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061188729274094</v>
+        <v>1.107358370004808</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.859036914998234</v>
       </c>
       <c r="E20" t="n">
-        <v>5.374642385351754</v>
+        <v>5.535817094107164</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.886979875083392</v>
+        <v>-3.081870744378112</v>
       </c>
       <c r="G20" t="n">
-        <v>1.224201638575959</v>
+        <v>1.26180079701304</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.039392301052065</v>
       </c>
       <c r="E21" t="n">
-        <v>5.694134488748667</v>
+        <v>5.855477103034533</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.173865454490088</v>
+        <v>-3.378130562552487</v>
       </c>
       <c r="G21" t="n">
-        <v>1.341621626143018</v>
+        <v>1.407198226098092</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.180589773028186</v>
       </c>
       <c r="E22" t="n">
-        <v>5.956540171839142</v>
+        <v>6.119888892201917</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.48252546110055</v>
+        <v>-3.66348455151182</v>
       </c>
       <c r="G22" t="n">
-        <v>1.444318488761354</v>
+        <v>1.490464768722615</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.28178495296501</v>
       </c>
       <c r="E23" t="n">
-        <v>6.072504491459566</v>
+        <v>6.204863691092803</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.705586498261263</v>
+        <v>-3.890284041809304</v>
       </c>
       <c r="G23" t="n">
-        <v>1.550379302181144</v>
+        <v>1.595702115019132</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.341713539161594</v>
       </c>
       <c r="E24" t="n">
-        <v>6.163309262377451</v>
+        <v>6.322531886835317</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.909161733600708</v>
+        <v>-4.111207568564927</v>
       </c>
       <c r="G24" t="n">
-        <v>1.667682485900931</v>
+        <v>1.706037949249102</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.358996410730936</v>
       </c>
       <c r="E25" t="n">
-        <v>6.17988956849781</v>
+        <v>6.315510515566137</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.999997165528502</v>
+        <v>-4.226675471834441</v>
       </c>
       <c r="G25" t="n">
-        <v>1.685635237226744</v>
+        <v>1.712005165796646</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.336870020041877</v>
       </c>
       <c r="E26" t="n">
-        <v>6.085713546538017</v>
+        <v>6.223178534345162</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.076519015997072</v>
+        <v>-4.26636760920984</v>
       </c>
       <c r="G26" t="n">
-        <v>1.694432026974469</v>
+        <v>1.694608692793469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.278447412043759</v>
       </c>
       <c r="E27" t="n">
-        <v>5.932722407332149</v>
+        <v>6.06679132327984</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.123563955558287</v>
+        <v>-4.307733691721465</v>
       </c>
       <c r="G27" t="n">
-        <v>1.707097944163102</v>
+        <v>1.721761207140098</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.185359541164361</v>
       </c>
       <c r="E28" t="n">
-        <v>5.829885380097086</v>
+        <v>5.984243124316045</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.089864585572023</v>
+        <v>-4.273555425961383</v>
       </c>
       <c r="G28" t="n">
-        <v>1.672620368544384</v>
+        <v>1.679272347646564</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.060983142719738</v>
       </c>
       <c r="E29" t="n">
-        <v>5.561654105123885</v>
+        <v>5.714005743265935</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.067561620959347</v>
+        <v>-4.25002821102448</v>
       </c>
       <c r="G29" t="n">
-        <v>1.617959088116944</v>
+        <v>1.633943694616212</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.910485109641405</v>
       </c>
       <c r="E30" t="n">
-        <v>5.416820254601924</v>
+        <v>5.590850686797786</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.004090410351364</v>
+        <v>-4.207975175886083</v>
       </c>
       <c r="G30" t="n">
-        <v>1.577466114363682</v>
+        <v>1.621083591031489</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.737809370233487</v>
       </c>
       <c r="E31" t="n">
-        <v>5.153572123762995</v>
+        <v>5.33890332818249</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.874363677426035</v>
+        <v>-4.071873142971801</v>
       </c>
       <c r="G31" t="n">
-        <v>1.440209913433537</v>
+        <v>1.469945252852984</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.547471830550824</v>
       </c>
       <c r="E32" t="n">
-        <v>4.857163380683347</v>
+        <v>4.99025406441013</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.69150725452063</v>
+        <v>-3.885787093689305</v>
       </c>
       <c r="G32" t="n">
-        <v>1.324708429057932</v>
+        <v>1.353721044672379</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.346808711121547</v>
       </c>
       <c r="E33" t="n">
-        <v>4.550337194475066</v>
+        <v>4.72318206762111</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.485482788508686</v>
+        <v>-3.680866424034088</v>
       </c>
       <c r="G33" t="n">
-        <v>1.254204166796042</v>
+        <v>1.312887879713935</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.138517092246327</v>
       </c>
       <c r="E34" t="n">
-        <v>4.178584129712165</v>
+        <v>4.326901654979035</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.316569824871458</v>
+        <v>-3.51196952092586</v>
       </c>
       <c r="G34" t="n">
-        <v>1.16043111810934</v>
+        <v>1.229323487278867</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.924773462005286</v>
       </c>
       <c r="E35" t="n">
-        <v>3.827267358077715</v>
+        <v>3.972070547589766</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.160505284434227</v>
+        <v>-3.390112447210529</v>
       </c>
       <c r="G35" t="n">
-        <v>1.076380529659999</v>
+        <v>1.165339799790975</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.712724140334664</v>
       </c>
       <c r="E36" t="n">
-        <v>3.486267286253624</v>
+        <v>3.632562644914585</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.022839540014583</v>
+        <v>-3.233560980734981</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9512383477401231</v>
+        <v>1.027575502125194</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.507183276243764</v>
       </c>
       <c r="E37" t="n">
-        <v>3.106662082857817</v>
+        <v>3.244238034319871</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.888415102356755</v>
+        <v>-3.092566326668064</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8417581016914252</v>
+        <v>0.90521617186659</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.310305711898151</v>
       </c>
       <c r="E38" t="n">
-        <v>2.759671433716728</v>
+        <v>2.904042448993871</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.747128438671656</v>
+        <v>-2.928948227432517</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7515285897213585</v>
+        <v>0.8100575375416156</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.126555838584437</v>
       </c>
       <c r="E39" t="n">
-        <v>2.415230028542366</v>
+        <v>2.528363314914518</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.636072070708823</v>
+        <v>-2.810229527088594</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6704579594255621</v>
+        <v>0.7108896111590058</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9572205006939783</v>
       </c>
       <c r="E40" t="n">
-        <v>2.143488797958621</v>
+        <v>2.203842805892514</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.511728535094675</v>
+        <v>-2.689513480956308</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5693540092744075</v>
+        <v>0.6070553710778519</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8016017880822457</v>
       </c>
       <c r="E41" t="n">
-        <v>1.908873670230502</v>
+        <v>1.982884968006755</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.420017804336381</v>
+        <v>-2.567716269212705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4962041398717907</v>
+        <v>0.5247656006261466</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.661055541919734</v>
       </c>
       <c r="E42" t="n">
-        <v>1.620400288524943</v>
+        <v>1.625732384152942</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.332369657391041</v>
+        <v>-2.476039119560502</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4381424074406245</v>
+        <v>0.4807320102524312</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5360430137217951</v>
       </c>
       <c r="E43" t="n">
-        <v>1.427989310912631</v>
+        <v>1.444108241836263</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.274032705894738</v>
+        <v>-2.429627840870742</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3548335234214651</v>
+        <v>0.3928400352759094</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4252153614882748</v>
       </c>
       <c r="E44" t="n">
-        <v>1.217622661878324</v>
+        <v>1.21330967981778</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.231147443344522</v>
+        <v>-2.399033993173841</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3154735469867483</v>
+        <v>0.3382502972049241</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3277760706143802</v>
       </c>
       <c r="E45" t="n">
-        <v>1.056910788367731</v>
+        <v>1.050946491916369</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.13735030386432</v>
+        <v>-2.277655085208282</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2235562194235912</v>
+        <v>0.2378530103297692</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2428577331547615</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8647158978728736</v>
+        <v>0.8242930064279753</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.09363062383015</v>
+        <v>-2.243409657236019</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2173349545082292</v>
+        <v>0.2637411230296713</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1679666152448801</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6023043745900349</v>
+        <v>0.5223273203143292</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.019340456868534</v>
+        <v>-2.176135751375265</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1730122746125139</v>
+        <v>0.2051639936224143</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1011432569603857</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4886892723478836</v>
+        <v>0.3937029236976364</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.944790401346736</v>
+        <v>-2.085201036177289</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1165463747447108</v>
+        <v>0.1373944014347962</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04161589429845017</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3314333326684713</v>
+        <v>0.2214931714711372</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.856122410809896</v>
+        <v>-2.009374168599991</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07765799384335766</v>
+        <v>0.1098783351135308</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01191155858377642</v>
       </c>
       <c r="E50" t="n">
-        <v>0.232259566093498</v>
+        <v>0.1082518415402585</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.792075211230049</v>
+        <v>-1.92380440011206</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03065028550846119</v>
+        <v>0.04911259361800168</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.06114349643777072</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1122071118185302</v>
+        <v>0.01185216633801169</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.742065644020245</v>
+        <v>-1.876686458146299</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01578216387861726</v>
+        <v>0.01150759498855723</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1071179589265289</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03866594952754994</v>
+        <v>-0.0628190731753319</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.680165445158079</v>
+        <v>-1.789496036277459</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03404444539970326</v>
+        <v>-0.01438489785561763</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1512144389200186</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.04633367018088178</v>
+        <v>-0.1584814240916698</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.617297234411642</v>
+        <v>-1.728662402545703</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09307272966705105</v>
+        <v>-0.08078496493396344</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.195748721264205</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07949574246969106</v>
+        <v>-0.1544268705432164</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.600267233479283</v>
+        <v>-1.704253318561891</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.128078842694678</v>
+        <v>-0.1320895948004042</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2418161372160697</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.201400997772022</v>
+        <v>-0.2984299537014505</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.603670605579191</v>
+        <v>-1.706944187193436</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1536472048626711</v>
+        <v>-0.1626761422568505</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2897532480839488</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2632106736525508</v>
+        <v>-0.3669704512810684</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.563033087064929</v>
+        <v>-1.642269896958544</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1946103141012056</v>
+        <v>-0.1879043132196619</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3402087511085187</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3270863175817155</v>
+        <v>-0.3893106471200624</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.561086842959748</v>
+        <v>-1.636931961138182</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1876721655732075</v>
+        <v>-0.1938802900557512</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.392926224487492</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3481621117739825</v>
+        <v>-0.3976241609496965</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.572130646719381</v>
+        <v>-1.627089776957366</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.271778235850003</v>
+        <v>-0.2680142318716404</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4465495913262692</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4116990245460564</v>
+        <v>-0.4507903521320459</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.585341161845923</v>
+        <v>-1.622487705374822</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3113513793059924</v>
+        <v>-0.3129194709556284</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4997325639556537</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4427016857084117</v>
+        <v>-0.436715488535686</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.60850482480819</v>
+        <v>-1.624432489431913</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3237209067321709</v>
+        <v>-0.296965525466269</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5514806912347039</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5194053121643002</v>
+        <v>-0.5187015689844822</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.621727020319459</v>
+        <v>-1.661211100841903</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3853699773226998</v>
+        <v>-0.3735844691328848</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6009663663187489</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6462922515528116</v>
+        <v>-0.6467828277113569</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.667169557100901</v>
+        <v>-1.693078110474076</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4104346228993295</v>
+        <v>-0.4022598136383317</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.647963423971558</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7434088103676946</v>
+        <v>-0.7242237784531543</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.742496358207063</v>
+        <v>-1.776645423005326</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4326667751795962</v>
+        <v>-0.4314286543985056</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6930685893875879</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8664266223152979</v>
+        <v>-0.8482957451223937</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.745617941025426</v>
+        <v>-1.778362439560235</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4781896146060385</v>
+        <v>-0.4807388585727652</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7358130674968826</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9309490675487352</v>
+        <v>-0.9259819839434638</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.739268191878063</v>
+        <v>-1.743911144807153</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5007298370334871</v>
+        <v>-0.5122656769997567</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7753256674751109</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9978338705932627</v>
+        <v>-0.9963796626947176</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.863041578712712</v>
+        <v>-1.910728209409881</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5128496962361202</v>
+        <v>-0.5277582472923888</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.81134327305596</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.039383919164342</v>
+        <v>-1.009273347385532</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.906464868984428</v>
+        <v>-1.933254561380466</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.51678598588921</v>
+        <v>-0.5138001875433017</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8429000396821539</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.106229300910415</v>
+        <v>-1.051943252842339</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.96492227444823</v>
+        <v>-1.985700948853997</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5537018418197456</v>
+        <v>-0.5763048463151031</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8684024341624936</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.110288234603142</v>
+        <v>-1.048256631412795</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.018857180950443</v>
+        <v>-2.030622248466985</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5598063028878348</v>
+        <v>-0.5565810566550174</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8874805938412726</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.137107857985043</v>
+        <v>-1.082845170686422</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.082971542742471</v>
+        <v>-2.120572161227643</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5679095697923781</v>
+        <v>-0.5799272256286476</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9000904076199122</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.106398666488961</v>
+        <v>-1.072122577506788</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.136823226503502</v>
+        <v>-2.192668605932669</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6203822381315458</v>
+        <v>-0.6573725565147177</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9055140057680039</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.078186157228332</v>
+        <v>-1.048542800838613</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.188061424181807</v>
+        <v>-2.249465206693063</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6109532475604574</v>
+        <v>-0.6422858795913581</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9035520351563412</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9863973138971748</v>
+        <v>-0.9522336486180022</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.187108742802489</v>
+        <v>-2.252807986797198</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6548656539426275</v>
+        <v>-0.691029585106345</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.89435625740775</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9137365606050125</v>
+        <v>-0.8875958595853831</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.197073571022941</v>
+        <v>-2.264356237172241</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6541254095605368</v>
+        <v>-0.7219563237679731</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8770631650104036</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7460704780374212</v>
+        <v>-0.7044503471579778</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.169354558017039</v>
+        <v>-2.253416826851107</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.638066340608632</v>
+        <v>-0.7041962987901597</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8511505695724363</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.609328214035276</v>
+        <v>-0.5713450629502863</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.105164273724283</v>
+        <v>-2.147149416626454</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6123110922850026</v>
+        <v>-0.6733995044086225</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8173252500684532</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4378426456618675</v>
+        <v>-0.4037038012002404</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.115649609089144</v>
+        <v>-2.19553030019085</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5877954247905546</v>
+        <v>-0.6282241564278165</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7759171717501904</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2799399046781827</v>
+        <v>-0.2490934686615546</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.074271116168746</v>
+        <v>-2.131978786937867</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5959746141958251</v>
+        <v>-0.6523237102163554</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7272536233168868</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.07569523728905571</v>
+        <v>-0.04846972053788121</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.043945187296527</v>
+        <v>-2.103562600968557</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5153522186639377</v>
+        <v>-0.5476295018096563</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6728882377908976</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1130115983166209</v>
+        <v>0.1165668154179836</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.010166244689309</v>
+        <v>-2.067008106940521</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4888027041788539</v>
+        <v>-0.518129230132846</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6139929995325288</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2885225192766647</v>
+        <v>0.2846285710182112</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.948036818276871</v>
+        <v>-1.987140556271633</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.393603188507334</v>
+        <v>-0.4096885383248751</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5517596515206314</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5069676143979697</v>
+        <v>0.5029948235426071</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.886365116940933</v>
+        <v>-1.930710427582058</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3195524694326266</v>
+        <v>-0.3313073166125325</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.488218600259622</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7528864344459036</v>
+        <v>0.7713312219783532</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.805190093206637</v>
+        <v>-1.849021466919761</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2765423727706381</v>
+        <v>-0.2869758764282717</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4251295030292356</v>
       </c>
       <c r="E84" t="n">
-        <v>1.046794115145825</v>
+        <v>1.100995480424628</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.776765146948781</v>
+        <v>-1.817547940248088</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2268408757080151</v>
+        <v>-0.2480947957673731</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3638095909052152</v>
       </c>
       <c r="E85" t="n">
-        <v>1.23146537782823</v>
+        <v>1.270070509399946</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.722957994654522</v>
+        <v>-1.746987466134698</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1971799987412049</v>
+        <v>-0.2170118319600178</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3063235766981188</v>
       </c>
       <c r="E86" t="n">
-        <v>1.475138643912346</v>
+        <v>1.560211266025323</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.658612215240085</v>
+        <v>-1.685922414780533</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1309565974818591</v>
+        <v>-0.1437758197200374</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2550307632220811</v>
       </c>
       <c r="E87" t="n">
-        <v>1.693192446145287</v>
+        <v>1.789844709667262</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.586293113201195</v>
+        <v>-1.586754488397923</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05682119561787896</v>
+        <v>-0.06437840453642239</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2114047964697295</v>
       </c>
       <c r="E88" t="n">
-        <v>1.853634210759063</v>
+        <v>1.953662105467218</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.473654783131862</v>
+        <v>-1.464722208911683</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05579916195424287</v>
+        <v>-0.07550397098914667</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1774445725809433</v>
       </c>
       <c r="E89" t="n">
-        <v>2.005140481056476</v>
+        <v>2.124822083116353</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.38058839772116</v>
+        <v>-1.3989222215987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0209351255115547</v>
+        <v>0.01113528272537551</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1546746605507325</v>
       </c>
       <c r="E90" t="n">
-        <v>2.130278282832079</v>
+        <v>2.263532491945043</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.198549601746663</v>
+        <v>-1.195638265853391</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0720090677796319</v>
+        <v>0.06165732681508922</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1432325978711977</v>
       </c>
       <c r="E91" t="n">
-        <v>2.163910490606161</v>
+        <v>2.294840303158399</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.01921481483653</v>
+        <v>-1.016529786397349</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09404995375998962</v>
+        <v>0.09226577499289919</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1429611937988967</v>
       </c>
       <c r="E92" t="n">
-        <v>2.14241128246753</v>
+        <v>2.28647130750131</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8542293805638467</v>
+        <v>-0.8563552105842097</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1122888745116211</v>
+        <v>0.1155929633413475</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1535133000712058</v>
       </c>
       <c r="E93" t="n">
-        <v>2.154490260323618</v>
+        <v>2.306792256830577</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6509775458765376</v>
+        <v>-0.6701757182238961</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09378860515171696</v>
+        <v>0.09741390456144326</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1728987041012651</v>
       </c>
       <c r="E94" t="n">
-        <v>2.109047723542176</v>
+        <v>2.250075228691138</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4907956698229443</v>
+        <v>-0.5079672954201214</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08434501409971949</v>
+        <v>0.08456986150571943</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1988925167278342</v>
       </c>
       <c r="E95" t="n">
-        <v>2.022077038911017</v>
+        <v>2.148826733778983</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3022158584011767</v>
+        <v>-0.3191582564480813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0543862873223639</v>
+        <v>0.04708604686782041</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.228528092296955</v>
       </c>
       <c r="E96" t="n">
-        <v>1.889485691631326</v>
+        <v>2.000060973748205</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1827240625931179</v>
+        <v>-0.1882109233187528</v>
       </c>
       <c r="G96" t="n">
-        <v>0.009758457375648613</v>
+        <v>0.02012333877300947</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2584054619642867</v>
       </c>
       <c r="E97" t="n">
-        <v>1.763966817303996</v>
+        <v>1.86860554388324</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08928682496732479</v>
+        <v>-0.08790999961759789</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.00699267437134689</v>
+        <v>0.006182799601013209</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2862793006333596</v>
       </c>
       <c r="E98" t="n">
-        <v>1.613190571052036</v>
+        <v>1.709112810528556</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02489140391779663</v>
+        <v>-0.008608947607982819</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02576159257997821</v>
+        <v>-0.003732386984347765</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3114465497641724</v>
       </c>
       <c r="E99" t="n">
-        <v>1.449408216406262</v>
+        <v>1.537574680423875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02192795821337262</v>
+        <v>0.04545371310218448</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05641530224860634</v>
+        <v>-0.03511466065033934</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3321840500474237</v>
       </c>
       <c r="E100" t="n">
-        <v>1.320772139404842</v>
+        <v>1.398620443564003</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07076948695045041</v>
+        <v>0.1176691517266196</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08316046317787189</v>
+        <v>-0.07715966552423714</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3476154475778148</v>
       </c>
       <c r="E101" t="n">
-        <v>1.15185187552716</v>
+        <v>1.227809417408594</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07485762160499476</v>
+        <v>0.1228026808142546</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06059249983669613</v>
+        <v>-0.04269961048261003</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3576271436802856</v>
       </c>
       <c r="E102" t="n">
-        <v>1.034052275456464</v>
+        <v>1.08877049775945</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07826245375299386</v>
+        <v>0.1250307142009813</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1068147022986837</v>
+        <v>-0.1198310310291348</v>
       </c>
     </row>
   </sheetData>
